--- a/Test/Test.VirtualRadar.Database.SQLite/EmbeddedTestData/BaseStationDatabaseTests.xlsx
+++ b/Test/Test.VirtualRadar.Database.SQLite/EmbeddedTestData/BaseStationDatabaseTests.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GetAircraftBy" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="GetFlights" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="208">
   <si>
     <t xml:space="preserve">AircraftClass</t>
   </si>
@@ -452,6 +453,198 @@
   </si>
   <si>
     <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AircraftId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Callsign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EndTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstAltitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstGroundSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstIsOnGround</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstLat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstLon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstSquawk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstTrack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstVerticalRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HadAlert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HadEmergency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HadSpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastAltitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastGroundSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastIsOnGround</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastLat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastLon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastSquawk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastTrack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastVerticalRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumADSBMsgRec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumModeSMsgRec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumIDMsgRec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumSurPosMsgRec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumAirPosMsgRec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumAirVelMsgRec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumSurAltMsgRec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumSurIDMsgRec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumAirToAirMsgRec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumAirCallRepMsgRec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumPosMsgRec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/11/2010 14:22:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.58321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-123.456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/11/2010 04:50:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">';GO;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLSIGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/12/2010 14:22:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/12/2010 04:50:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jj</t>
   </si>
 </sst>
 </file>
@@ -462,11 +655,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -482,6 +676,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFA31515"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -537,20 +744,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -633,8 +852,8 @@
   </sheetPr>
   <dimension ref="A1:AW5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -659,13 +878,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="5.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="9.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="8.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="6.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="6.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="28" style="1" width="8.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="32" style="1" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="1" width="7.85"/>
@@ -1426,4 +1645,1021 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AI9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="7.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="12.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="7.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="6.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="5" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="5" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="12.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="5" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="5" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="5" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="5" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="5" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="5" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="5" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="5" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="5" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="5" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="5" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="5" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="5" width="15.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="5" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="5" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="5" width="15.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="35" style="5" width="11.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI9" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Test/Test.VirtualRadar.Database.SQLite/EmbeddedTestData/BaseStationDatabaseTests.xlsx
+++ b/Test/Test.VirtualRadar.Database.SQLite/EmbeddedTestData/BaseStationDatabaseTests.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Callsigns" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="GetAircraftBy" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="GetFlights" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="GetFlightsRows" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="255">
   <si>
     <t xml:space="preserve">Callsign1</t>
   </si>
@@ -760,6 +761,33 @@
   </si>
   <si>
     <t xml:space="preserve">Jj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartRow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EndRow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpectedCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpectedRows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999</t>
   </si>
 </sst>
 </file>
@@ -848,12 +876,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -870,6 +898,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -952,23 +984,23 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="2.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="2.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="2.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="2.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="2.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="2.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="19" style="1" width="9.14"/>
   </cols>
   <sheetData>
@@ -1307,7 +1339,7 @@
   <dimension ref="A1:AW5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2109,7 +2141,7 @@
   <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2132,7 +2164,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="13.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="12.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="8.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="12.85"/>
@@ -3116,4 +3148,218 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>